--- a/public/data/passport_import.xlsx
+++ b/public/data/passport_import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Date of Passport</t>
   </si>
   <si>
+    <t xml:space="preserve">Passport Expiry Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Place of Passport</t>
   </si>
   <si>
@@ -152,6 +155,87 @@
   </si>
   <si>
     <t xml:space="preserve">Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/abc(N)009221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Mg Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yangon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF615425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daw Mya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burmese / Buddhis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Mya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untrne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/abc(B)009332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Mya Soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YGN/KTD3564710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YGNOW00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYGN000292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Remark</t>
   </si>
 </sst>
 </file>
@@ -161,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,12 +266,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -233,16 +311,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,310 +333,289 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
+      <c r="A2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>9555161776</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>9877387736</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
